--- a/Data Sampleo.xlsx
+++ b/Data Sampleo.xlsx
@@ -5,16 +5,21 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unisabanaedu-my.sharepoint.com/personal/carlosrodsal_unisabana_edu_co/Documents/MGOP/INSTANCIAS DRONES/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://unisabanaedu-my.sharepoint.com/personal/carlosrodsal_unisabana_edu_co/Documents/MGOP/DRONES 2023 2/paper-drones-2023/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EE247916-58E7-47BC-802C-4BCC3E649ABF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="62" documentId="8_{EE247916-58E7-47BC-802C-4BCC3E649ABF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3A5C53BF-ADA6-4034-834B-A4DDA979DE10}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{D065581A-0F0B-4149-AA1C-66ABAAD442B4}"/>
   </bookViews>
   <sheets>
     <sheet name="parking_coords" sheetId="1" r:id="rId1"/>
+    <sheet name="node_0" sheetId="3" r:id="rId2"/>
+    <sheet name="customer_db" sheetId="2" r:id="rId3"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">customer_db!$A$1:$D$83</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -36,16 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
-  <si>
-    <t>Depot</t>
-  </si>
-  <si>
-    <t>Latitud</t>
-  </si>
-  <si>
-    <t>Longitud</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="199">
   <si>
     <t xml:space="preserve">Depot 1 </t>
   </si>
@@ -90,6 +86,558 @@
   </si>
   <si>
     <t>Depot 15</t>
+  </si>
+  <si>
+    <t>Conjunto Residencial Abeto</t>
+  </si>
+  <si>
+    <t>Conjunto Residencial Altavista</t>
+  </si>
+  <si>
+    <t>Conjunto Residencial Atardeceres</t>
+  </si>
+  <si>
+    <t>Conjunto Residencial Bosque de Luna</t>
+  </si>
+  <si>
+    <t>Conjunto Residencial Colinas del Bosque</t>
+  </si>
+  <si>
+    <t>Conjunto Residencial Condado San Nicolas</t>
+  </si>
+  <si>
+    <t>Conjunto Residencial Costa Rica II</t>
+  </si>
+  <si>
+    <t>Conjunto Residencial Ensueños del Saucedal</t>
+  </si>
+  <si>
+    <t>Conjunto Residencial La Herradura</t>
+  </si>
+  <si>
+    <t>Conjunto Residencial Madero</t>
+  </si>
+  <si>
+    <t>Conjunto Residencial Nogales de Chia</t>
+  </si>
+  <si>
+    <t>Conjunto Residencial Palo Grande</t>
+  </si>
+  <si>
+    <t>Conjunto Residencial San Felipe Reservado</t>
+  </si>
+  <si>
+    <t>Conjunto Residencial San Ignacio</t>
+  </si>
+  <si>
+    <t>Conjunto Residencial San Nicolás</t>
+  </si>
+  <si>
+    <t>Conjunto Residencial San Pedro</t>
+  </si>
+  <si>
+    <t>Conjunto Residencial Terra Fagua</t>
+  </si>
+  <si>
+    <t>Conjunto Residencial Torres Xiagua</t>
+  </si>
+  <si>
+    <t>conjunto residencial cañadulzal</t>
+  </si>
+  <si>
+    <t>Conjunto Residencial El Coral</t>
+  </si>
+  <si>
+    <t>Conjunto Residencial Lunaria</t>
+  </si>
+  <si>
+    <t>Conjunto Residencial Naranjo I</t>
+  </si>
+  <si>
+    <t>Conjunto Residencial Parque De Las Flores 1</t>
+  </si>
+  <si>
+    <t>Conjunto Residencial Parque de las Flores 3</t>
+  </si>
+  <si>
+    <t>Conjunto Residencial Parques Del Nogal</t>
+  </si>
+  <si>
+    <t>Conjunto Residencial San Teo</t>
+  </si>
+  <si>
+    <t>Conjunto Residencial Santa Cecilia I</t>
+  </si>
+  <si>
+    <t>Conjunto Residencial Santa Cecilia II</t>
+  </si>
+  <si>
+    <t>Conjunto Residencial Santa Cecilia IV</t>
+  </si>
+  <si>
+    <t>Conjunto Residencial Stanza</t>
+  </si>
+  <si>
+    <t>Conjunto Residencial Verde Vista</t>
+  </si>
+  <si>
+    <t>Conjunto Residencial Villa Maria</t>
+  </si>
+  <si>
+    <t>Conjunto residencial</t>
+  </si>
+  <si>
+    <t>Conjunto residencial Guayacán</t>
+  </si>
+  <si>
+    <t>Conjunto residencial Villas de San Felipe</t>
+  </si>
+  <si>
+    <t>Quintas de Guaymaral I - Conjunto Residencial</t>
+  </si>
+  <si>
+    <t>conjunto residencial la avenida</t>
+  </si>
+  <si>
+    <t>Conjunto Residencial Aticos del Eden</t>
+  </si>
+  <si>
+    <t>Conjunto Residencial El Paseo de Los Buganviles</t>
+  </si>
+  <si>
+    <t>Conjunto Residencial Girasol</t>
+  </si>
+  <si>
+    <t>Conjunto Residencial Guaymaral Reservado</t>
+  </si>
+  <si>
+    <t>Conjunto Residencial Lindaraja de Chía 2</t>
+  </si>
+  <si>
+    <t>Conjunto Residencial Mirador de Rio Frio</t>
+  </si>
+  <si>
+    <t>Conjunto Residencial Nogal</t>
+  </si>
+  <si>
+    <t>Conjunto Residencial Palo Amarillo</t>
+  </si>
+  <si>
+    <t>Conjunto Residencial Pinares De Chía- La Alborada</t>
+  </si>
+  <si>
+    <t>Conjunto Residencial Pinares Sector Luna Nueva</t>
+  </si>
+  <si>
+    <t>Conjunto Residencial Remanso de Santa Cruz</t>
+  </si>
+  <si>
+    <t>Conjunto Residencial Reserva de Monteverde</t>
+  </si>
+  <si>
+    <t>Conjunto Residencial Rincón de Chicalå</t>
+  </si>
+  <si>
+    <t>Conjunto Residencial San Diego 2</t>
+  </si>
+  <si>
+    <t>Conjunto Residencial Santa Cecilia III</t>
+  </si>
+  <si>
+    <t>Conjunto Residencial Santa Helena</t>
+  </si>
+  <si>
+    <t>Conjunto Residencial Torres Aqua</t>
+  </si>
+  <si>
+    <t>Conjunto Residencial Villas de Marbella</t>
+  </si>
+  <si>
+    <t>Yacuy conjunto residencial</t>
+  </si>
+  <si>
+    <t>Conjunto Naranjo II</t>
+  </si>
+  <si>
+    <t>Conjunto Residencial Catalina</t>
+  </si>
+  <si>
+    <t>Conjunto Residencial Costa Rica 4</t>
+  </si>
+  <si>
+    <t>Conjunto Residencial Kataty</t>
+  </si>
+  <si>
+    <t>Conjunto Residencial Los Saucos</t>
+  </si>
+  <si>
+    <t>Conjunto Residencial Quintas del Parque</t>
+  </si>
+  <si>
+    <t>Conjunto Residencial Santa Ana Chia II</t>
+  </si>
+  <si>
+    <t>Conjunto Residencial Soraca</t>
+  </si>
+  <si>
+    <t>Conjunto Residencial Sorrento</t>
+  </si>
+  <si>
+    <t>Conjunto Residencial Tierraviva</t>
+  </si>
+  <si>
+    <t>Conjunto Residencial Villa Lauren</t>
+  </si>
+  <si>
+    <t>Conjunto Valle de Luna</t>
+  </si>
+  <si>
+    <t>Conjunto residencial Serralta</t>
+  </si>
+  <si>
+    <t>Tierra Luna - Conjunto residencial</t>
+  </si>
+  <si>
+    <t>Villa Barichara Conjunto Residencial</t>
+  </si>
+  <si>
+    <t>Aventura Residential Condominium</t>
+  </si>
+  <si>
+    <t>Conjunto Residencial Hacienda El Nogal</t>
+  </si>
+  <si>
+    <t>Conjunto Residencial La Carolina</t>
+  </si>
+  <si>
+    <t>Conjunto Residencial Las Terrazas Chía</t>
+  </si>
+  <si>
+    <t>Conjunto Residencial Ponylandia</t>
+  </si>
+  <si>
+    <t>Conjunto Residencial Rincón de La Floresta</t>
+  </si>
+  <si>
+    <t>Conjunto Residencial Sierraluna</t>
+  </si>
+  <si>
+    <t>Conjunto Residencial Tejares San José</t>
+  </si>
+  <si>
+    <t>Conjunto Riviera Chia / URBANSA</t>
+  </si>
+  <si>
+    <t>Conjunto residencial Costa Rica III</t>
+  </si>
+  <si>
+    <t>Quintas De Guaymaral II - Conjunto Residencial</t>
+  </si>
+  <si>
+    <t>customer_name</t>
+  </si>
+  <si>
+    <t>latitude</t>
+  </si>
+  <si>
+    <t>longitude</t>
+  </si>
+  <si>
+    <t>Customer 1</t>
+  </si>
+  <si>
+    <t>Customer 2</t>
+  </si>
+  <si>
+    <t>Customer 3</t>
+  </si>
+  <si>
+    <t>Customer 4</t>
+  </si>
+  <si>
+    <t>Customer 6</t>
+  </si>
+  <si>
+    <t>Customer 7</t>
+  </si>
+  <si>
+    <t>Customer 8</t>
+  </si>
+  <si>
+    <t>Customer 9</t>
+  </si>
+  <si>
+    <t>Customer 10</t>
+  </si>
+  <si>
+    <t>Customer 11</t>
+  </si>
+  <si>
+    <t>Customer 12</t>
+  </si>
+  <si>
+    <t>Customer 13</t>
+  </si>
+  <si>
+    <t>Customer 14</t>
+  </si>
+  <si>
+    <t>Customer 15</t>
+  </si>
+  <si>
+    <t>Customer 16</t>
+  </si>
+  <si>
+    <t>Customer 17</t>
+  </si>
+  <si>
+    <t>Customer 18</t>
+  </si>
+  <si>
+    <t>Customer 19</t>
+  </si>
+  <si>
+    <t>Customer 20</t>
+  </si>
+  <si>
+    <t>Customer 21</t>
+  </si>
+  <si>
+    <t>Customer 22</t>
+  </si>
+  <si>
+    <t>Customer 23</t>
+  </si>
+  <si>
+    <t>Customer 24</t>
+  </si>
+  <si>
+    <t>Customer 25</t>
+  </si>
+  <si>
+    <t>Customer 26</t>
+  </si>
+  <si>
+    <t>Customer 27</t>
+  </si>
+  <si>
+    <t>Customer 28</t>
+  </si>
+  <si>
+    <t>Customer 29</t>
+  </si>
+  <si>
+    <t>Customer 30</t>
+  </si>
+  <si>
+    <t>Customer 31</t>
+  </si>
+  <si>
+    <t>Customer 32</t>
+  </si>
+  <si>
+    <t>Customer 33</t>
+  </si>
+  <si>
+    <t>Customer 34</t>
+  </si>
+  <si>
+    <t>Customer 35</t>
+  </si>
+  <si>
+    <t>Customer 36</t>
+  </si>
+  <si>
+    <t>Customer 37</t>
+  </si>
+  <si>
+    <t>Customer 38</t>
+  </si>
+  <si>
+    <t>Customer 39</t>
+  </si>
+  <si>
+    <t>Customer 40</t>
+  </si>
+  <si>
+    <t>Customer 41</t>
+  </si>
+  <si>
+    <t>Customer 42</t>
+  </si>
+  <si>
+    <t>Customer 43</t>
+  </si>
+  <si>
+    <t>Customer 44</t>
+  </si>
+  <si>
+    <t>Customer 45</t>
+  </si>
+  <si>
+    <t>Customer 46</t>
+  </si>
+  <si>
+    <t>Customer 47</t>
+  </si>
+  <si>
+    <t>Customer 48</t>
+  </si>
+  <si>
+    <t>Customer 49</t>
+  </si>
+  <si>
+    <t>Customer 50</t>
+  </si>
+  <si>
+    <t>Customer 51</t>
+  </si>
+  <si>
+    <t>Customer 52</t>
+  </si>
+  <si>
+    <t>Customer 53</t>
+  </si>
+  <si>
+    <t>Customer 54</t>
+  </si>
+  <si>
+    <t>Customer 55</t>
+  </si>
+  <si>
+    <t>Customer 56</t>
+  </si>
+  <si>
+    <t>Customer 57</t>
+  </si>
+  <si>
+    <t>Customer 58</t>
+  </si>
+  <si>
+    <t>Customer 59</t>
+  </si>
+  <si>
+    <t>Customer 60</t>
+  </si>
+  <si>
+    <t>Customer 61</t>
+  </si>
+  <si>
+    <t>Customer 62</t>
+  </si>
+  <si>
+    <t>Customer 63</t>
+  </si>
+  <si>
+    <t>Customer 64</t>
+  </si>
+  <si>
+    <t>Customer 65</t>
+  </si>
+  <si>
+    <t>Customer 66</t>
+  </si>
+  <si>
+    <t>Customer 67</t>
+  </si>
+  <si>
+    <t>Customer 68</t>
+  </si>
+  <si>
+    <t>Customer 69</t>
+  </si>
+  <si>
+    <t>Customer 70</t>
+  </si>
+  <si>
+    <t>Customer 71</t>
+  </si>
+  <si>
+    <t>Customer 72</t>
+  </si>
+  <si>
+    <t>Customer 73</t>
+  </si>
+  <si>
+    <t>Customer 74</t>
+  </si>
+  <si>
+    <t>Customer 75</t>
+  </si>
+  <si>
+    <t>Customer 76</t>
+  </si>
+  <si>
+    <t>Customer 77</t>
+  </si>
+  <si>
+    <t>Customer 78</t>
+  </si>
+  <si>
+    <t>Customer 79</t>
+  </si>
+  <si>
+    <t>Customer 80</t>
+  </si>
+  <si>
+    <t>Customer 81</t>
+  </si>
+  <si>
+    <t>Customer 82</t>
+  </si>
+  <si>
+    <t>Customer 83</t>
+  </si>
+  <si>
+    <t>node</t>
+  </si>
+  <si>
+    <t>Centro Comercial Centro Chia</t>
+  </si>
+  <si>
+    <t>generic_parking_1</t>
+  </si>
+  <si>
+    <t>generic_parking_2</t>
+  </si>
+  <si>
+    <t>generic_parking_3</t>
+  </si>
+  <si>
+    <t>generic_parking_4</t>
+  </si>
+  <si>
+    <t>generic_parking_5</t>
+  </si>
+  <si>
+    <t>generic_parking_6</t>
+  </si>
+  <si>
+    <t>generic_parking_7</t>
+  </si>
+  <si>
+    <t>generic_parking_8</t>
+  </si>
+  <si>
+    <t>generic_parking_9</t>
+  </si>
+  <si>
+    <t>generic_parking_10</t>
+  </si>
+  <si>
+    <t>generic_parking_11</t>
+  </si>
+  <si>
+    <t>generic_parking_12</t>
+  </si>
+  <si>
+    <t>generic_parking_13</t>
+  </si>
+  <si>
+    <t>generic_parking_14</t>
+  </si>
+  <si>
+    <t>generic_parking_15</t>
   </si>
 </sst>
 </file>
@@ -97,7 +645,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="173" formatCode="0.0000000"/>
+    <numFmt numFmtId="164" formatCode="0.0000000"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -109,16 +657,17 @@
     </font>
     <font>
       <b/>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <sz val="8"/>
+      <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -141,21 +690,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="173" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -470,195 +1008,1539 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6284B6C5-2777-4945-97D5-89D7534F3389}">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="9.36328125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="14.7265625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.36328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C2">
+        <v>4.8581320000000003</v>
+      </c>
+      <c r="D2">
+        <v>-74.061153000000004</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C3">
+        <v>4.8561969999999999</v>
+      </c>
+      <c r="D3">
+        <v>-74.058931000000001</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A2" s="2" t="s">
+      <c r="C4">
+        <v>4.857011</v>
+      </c>
+      <c r="D4">
+        <v>-74.031737000000007</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>187</v>
+      </c>
+      <c r="B5" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="4">
-        <v>4.8581320000000003</v>
-      </c>
-      <c r="C2" s="4">
-        <v>-74.061153000000004</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A3" s="2" t="s">
+      <c r="C5">
+        <v>4.8608349999999998</v>
+      </c>
+      <c r="D5">
+        <v>-74.062522000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>188</v>
+      </c>
+      <c r="B6" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="4">
-        <v>4.8561969999999999</v>
-      </c>
-      <c r="C3" s="4">
-        <v>-74.058931000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" s="2" t="s">
+      <c r="C6">
+        <v>4.8764130000000003</v>
+      </c>
+      <c r="D6">
+        <v>-74.054220999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>189</v>
+      </c>
+      <c r="B7" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="4">
-        <v>4.857011</v>
-      </c>
-      <c r="C4" s="4">
-        <v>-74.031737000000007</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" s="2" t="s">
+      <c r="C7">
+        <v>4.86259</v>
+      </c>
+      <c r="D7">
+        <v>-74.060775000000007</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>190</v>
+      </c>
+      <c r="B8" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="4">
-        <v>4.8608349999999998</v>
-      </c>
-      <c r="C5" s="4">
-        <v>-74.062522000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A6" s="2" t="s">
+      <c r="C8">
+        <v>4.8842109999999996</v>
+      </c>
+      <c r="D8">
+        <v>-74.034908999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>191</v>
+      </c>
+      <c r="B9" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="4">
-        <v>4.8764130000000003</v>
-      </c>
-      <c r="C6" s="4">
-        <v>-74.054220999999998</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A7" s="2" t="s">
+      <c r="C9">
+        <v>4.8622100000000001</v>
+      </c>
+      <c r="D9">
+        <v>-74.043263999999994</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>192</v>
+      </c>
+      <c r="B10" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="4">
-        <v>4.86259</v>
-      </c>
-      <c r="C7" s="4">
-        <v>-74.060775000000007</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A8" s="2" t="s">
+      <c r="C10">
+        <v>4.8606280000000002</v>
+      </c>
+      <c r="D10">
+        <v>-74.062513999999993</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>193</v>
+      </c>
+      <c r="B11" t="s">
         <v>9</v>
       </c>
-      <c r="B8" s="4">
-        <v>4.8842109999999996</v>
-      </c>
-      <c r="C8" s="4">
-        <v>-74.034908999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A9" s="2" t="s">
+      <c r="C11">
+        <v>4.8651609999999996</v>
+      </c>
+      <c r="D11">
+        <v>-74.056755999999993</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>194</v>
+      </c>
+      <c r="B12" t="s">
         <v>10</v>
       </c>
-      <c r="B9" s="4">
-        <v>4.8622100000000001</v>
-      </c>
-      <c r="C9" s="4">
-        <v>-74.043263999999994</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10" s="2" t="s">
+      <c r="C12">
+        <v>4.8601210000000004</v>
+      </c>
+      <c r="D12">
+        <v>-74.060346999999993</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>195</v>
+      </c>
+      <c r="B13" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="4">
-        <v>4.8606280000000002</v>
-      </c>
-      <c r="C10" s="4">
-        <v>-74.062513999999993</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11" s="2" t="s">
+      <c r="C13">
+        <v>4.8873100000000003</v>
+      </c>
+      <c r="D13">
+        <v>-74.011155000000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>196</v>
+      </c>
+      <c r="B14" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="4">
-        <v>4.8651609999999996</v>
-      </c>
-      <c r="C11" s="4">
-        <v>-74.056755999999993</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A12" s="2" t="s">
+      <c r="C14">
+        <v>4.8560739999999996</v>
+      </c>
+      <c r="D14">
+        <v>-74.062872999999996</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>197</v>
+      </c>
+      <c r="B15" t="s">
         <v>13</v>
       </c>
-      <c r="B12" s="4">
-        <v>4.8601210000000004</v>
-      </c>
-      <c r="C12" s="4">
-        <v>-74.060346999999993</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A13" s="2" t="s">
+      <c r="C15">
+        <v>4.857316</v>
+      </c>
+      <c r="D15">
+        <v>-74.061072999999993</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>198</v>
+      </c>
+      <c r="B16" t="s">
         <v>14</v>
       </c>
-      <c r="B13" s="4">
-        <v>4.8873100000000003</v>
-      </c>
-      <c r="C13" s="4">
-        <v>-74.011155000000002</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A14" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14" s="4">
-        <v>4.8560739999999996</v>
-      </c>
-      <c r="C14" s="4">
-        <v>-74.062872999999996</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A15" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15" s="4">
-        <v>4.857316</v>
-      </c>
-      <c r="C15" s="4">
-        <v>-74.061072999999993</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A16" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16" s="4">
+      <c r="C16">
         <v>4.8626670000000001</v>
       </c>
-      <c r="C16" s="4">
+      <c r="D16">
         <v>-74.055305000000004</v>
+      </c>
+    </row>
+    <row r="17" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C17"/>
+      <c r="D17"/>
+    </row>
+    <row r="18" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C18"/>
+      <c r="D18"/>
+    </row>
+    <row r="19" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C19"/>
+      <c r="D19"/>
+    </row>
+    <row r="20" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C20"/>
+      <c r="D20"/>
+    </row>
+    <row r="21" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C21"/>
+      <c r="D21"/>
+    </row>
+    <row r="22" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C22"/>
+      <c r="D22"/>
+    </row>
+    <row r="23" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C23"/>
+      <c r="D23"/>
+    </row>
+    <row r="24" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C24"/>
+      <c r="D24"/>
+    </row>
+    <row r="25" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C25"/>
+      <c r="D25"/>
+    </row>
+    <row r="26" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C26"/>
+      <c r="D26"/>
+    </row>
+    <row r="27" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C27"/>
+      <c r="D27"/>
+    </row>
+    <row r="28" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C28"/>
+      <c r="D28"/>
+    </row>
+    <row r="29" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C29"/>
+      <c r="D29"/>
+    </row>
+    <row r="30" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C30"/>
+      <c r="D30"/>
+    </row>
+    <row r="31" spans="3:4" x14ac:dyDescent="0.35">
+      <c r="C31"/>
+      <c r="D31"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B705DFB-F425-4566-804A-6B655EB29696}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="26.26953125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>4.86700529572225</v>
+      </c>
+      <c r="D2">
+        <v>-74.0367819196792</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD4D3BA7-ADFA-4F63-A2CA-C195D4C427E9}">
+  <dimension ref="A1:D83"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="44.26953125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C2">
+        <v>4.8568221999999999</v>
+      </c>
+      <c r="D2">
+        <v>-74.053969600000002</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" t="s">
+        <v>101</v>
+      </c>
+      <c r="C3">
+        <v>4.8673792999999996</v>
+      </c>
+      <c r="D3">
+        <v>-74.053162299999997</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" t="s">
+        <v>102</v>
+      </c>
+      <c r="C4">
+        <v>4.8685076</v>
+      </c>
+      <c r="D4">
+        <v>-74.050175999999993</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C5">
+        <v>4.8559801</v>
+      </c>
+      <c r="D5">
+        <v>-74.050742</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C6">
+        <v>4.8730905</v>
+      </c>
+      <c r="D6">
+        <v>-74.066830699999997</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" t="s">
+        <v>105</v>
+      </c>
+      <c r="C7">
+        <v>4.8778388000000001</v>
+      </c>
+      <c r="D7">
+        <v>-74.042649600000004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>106</v>
+      </c>
+      <c r="C8">
+        <v>4.8589083000000004</v>
+      </c>
+      <c r="D8">
+        <v>-74.0494427</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>107</v>
+      </c>
+      <c r="C9">
+        <v>4.8544349999999996</v>
+      </c>
+      <c r="D9">
+        <v>-74.0450479</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" t="s">
+        <v>108</v>
+      </c>
+      <c r="C10">
+        <v>4.8537606000000002</v>
+      </c>
+      <c r="D10">
+        <v>-74.056517400000004</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C11">
+        <v>4.8546908000000002</v>
+      </c>
+      <c r="D11">
+        <v>-74.053296099999997</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" t="s">
+        <v>110</v>
+      </c>
+      <c r="C12">
+        <v>4.8795378999999999</v>
+      </c>
+      <c r="D12">
+        <v>-74.0442149</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" t="s">
+        <v>111</v>
+      </c>
+      <c r="C13">
+        <v>4.8785973</v>
+      </c>
+      <c r="D13">
+        <v>-74.044213200000002</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" t="s">
+        <v>112</v>
+      </c>
+      <c r="C14">
+        <v>4.8464290999999999</v>
+      </c>
+      <c r="D14">
+        <v>-74.0616907</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" t="s">
+        <v>113</v>
+      </c>
+      <c r="C15">
+        <v>4.8636495999999996</v>
+      </c>
+      <c r="D15">
+        <v>-74.057861799999998</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" t="s">
+        <v>114</v>
+      </c>
+      <c r="C16">
+        <v>4.8517473000000004</v>
+      </c>
+      <c r="D16">
+        <v>-74.057400900000005</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" t="s">
+        <v>115</v>
+      </c>
+      <c r="C17">
+        <v>4.8637934999999999</v>
+      </c>
+      <c r="D17">
+        <v>-74.049291699999998</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" t="s">
+        <v>116</v>
+      </c>
+      <c r="C18">
+        <v>4.8715937</v>
+      </c>
+      <c r="D18">
+        <v>-74.0668656</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" t="s">
+        <v>117</v>
+      </c>
+      <c r="C19">
+        <v>4.8661361000000003</v>
+      </c>
+      <c r="D19">
+        <v>-74.043649500000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" t="s">
+        <v>118</v>
+      </c>
+      <c r="C20">
+        <v>4.8782788000000004</v>
+      </c>
+      <c r="D20">
+        <v>-74.037310500000004</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" t="s">
+        <v>119</v>
+      </c>
+      <c r="C21">
+        <v>4.8647638000000004</v>
+      </c>
+      <c r="D21">
+        <v>-74.046415800000005</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" t="s">
+        <v>120</v>
+      </c>
+      <c r="C22">
+        <v>4.8605451000000004</v>
+      </c>
+      <c r="D22">
+        <v>-74.047175600000003</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" t="s">
+        <v>121</v>
+      </c>
+      <c r="C23">
+        <v>4.8527807000000003</v>
+      </c>
+      <c r="D23">
+        <v>-74.048465399999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" t="s">
+        <v>122</v>
+      </c>
+      <c r="C24">
+        <v>4.8775148000000002</v>
+      </c>
+      <c r="D24">
+        <v>-74.043610299999997</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" t="s">
+        <v>123</v>
+      </c>
+      <c r="C25">
+        <v>4.8793091999999998</v>
+      </c>
+      <c r="D25">
+        <v>-74.042227299999993</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26" t="s">
+        <v>124</v>
+      </c>
+      <c r="C26">
+        <v>4.8674770000000001</v>
+      </c>
+      <c r="D26">
+        <v>-74.043037299999995</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" t="s">
+        <v>125</v>
+      </c>
+      <c r="C27">
+        <v>4.8667363999999997</v>
+      </c>
+      <c r="D27">
+        <v>-74.051931499999995</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>41</v>
+      </c>
+      <c r="B28" t="s">
+        <v>126</v>
+      </c>
+      <c r="C28">
+        <v>4.8678606999999996</v>
+      </c>
+      <c r="D28">
+        <v>-74.059517600000007</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>42</v>
+      </c>
+      <c r="B29" t="s">
+        <v>127</v>
+      </c>
+      <c r="C29">
+        <v>4.8493537</v>
+      </c>
+      <c r="D29">
+        <v>-74.063959499999996</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>43</v>
+      </c>
+      <c r="B30" t="s">
+        <v>128</v>
+      </c>
+      <c r="C30">
+        <v>4.8675749000000001</v>
+      </c>
+      <c r="D30">
+        <v>-74.045768899999999</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>44</v>
+      </c>
+      <c r="B31" t="s">
+        <v>129</v>
+      </c>
+      <c r="C31">
+        <v>4.8641436000000002</v>
+      </c>
+      <c r="D31">
+        <v>-74.066035400000004</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>45</v>
+      </c>
+      <c r="B32" t="s">
+        <v>130</v>
+      </c>
+      <c r="C32">
+        <v>4.8493991999999997</v>
+      </c>
+      <c r="D32">
+        <v>-74.057858400000001</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>46</v>
+      </c>
+      <c r="B33" t="s">
+        <v>131</v>
+      </c>
+      <c r="C33">
+        <v>4.8655920000000004</v>
+      </c>
+      <c r="D33">
+        <v>-74.048385600000003</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>47</v>
+      </c>
+      <c r="B34" t="s">
+        <v>132</v>
+      </c>
+      <c r="C34">
+        <v>4.8499575999999998</v>
+      </c>
+      <c r="D34">
+        <v>-74.057661100000004</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>48</v>
+      </c>
+      <c r="B35" t="s">
+        <v>133</v>
+      </c>
+      <c r="C35">
+        <v>4.8571232999999996</v>
+      </c>
+      <c r="D35">
+        <v>-74.049575899999994</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>49</v>
+      </c>
+      <c r="B36" t="s">
+        <v>134</v>
+      </c>
+      <c r="C36">
+        <v>4.8783571999999999</v>
+      </c>
+      <c r="D36">
+        <v>-74.040418799999998</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A37" t="s">
+        <v>50</v>
+      </c>
+      <c r="B37" t="s">
+        <v>135</v>
+      </c>
+      <c r="C37">
+        <v>4.8383954999999998</v>
+      </c>
+      <c r="D37">
+        <v>-74.073226700000006</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A38" t="s">
+        <v>51</v>
+      </c>
+      <c r="B38" t="s">
+        <v>136</v>
+      </c>
+      <c r="C38">
+        <v>4.8626313999999997</v>
+      </c>
+      <c r="D38">
+        <v>-74.054578800000002</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A39" t="s">
+        <v>52</v>
+      </c>
+      <c r="B39" t="s">
+        <v>137</v>
+      </c>
+      <c r="C39">
+        <v>4.8615488999999998</v>
+      </c>
+      <c r="D39">
+        <v>-74.051378499999998</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A40" t="s">
+        <v>53</v>
+      </c>
+      <c r="B40" t="s">
+        <v>138</v>
+      </c>
+      <c r="C40">
+        <v>4.8494269000000001</v>
+      </c>
+      <c r="D40">
+        <v>-74.055638700000003</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A41" t="s">
+        <v>54</v>
+      </c>
+      <c r="B41" t="s">
+        <v>139</v>
+      </c>
+      <c r="C41">
+        <v>4.8588300000000002</v>
+      </c>
+      <c r="D41">
+        <v>-74.0617199</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A42" t="s">
+        <v>55</v>
+      </c>
+      <c r="B42" t="s">
+        <v>140</v>
+      </c>
+      <c r="C42">
+        <v>4.8486026000000004</v>
+      </c>
+      <c r="D42">
+        <v>-74.062433299999995</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A43" t="s">
+        <v>56</v>
+      </c>
+      <c r="B43" t="s">
+        <v>141</v>
+      </c>
+      <c r="C43">
+        <v>4.8790855000000004</v>
+      </c>
+      <c r="D43">
+        <v>-74.039673699999994</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A44" t="s">
+        <v>57</v>
+      </c>
+      <c r="B44" t="s">
+        <v>142</v>
+      </c>
+      <c r="C44">
+        <v>4.8687911000000001</v>
+      </c>
+      <c r="D44">
+        <v>-74.062089</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A45" t="s">
+        <v>58</v>
+      </c>
+      <c r="B45" t="s">
+        <v>143</v>
+      </c>
+      <c r="C45">
+        <v>4.8655276000000001</v>
+      </c>
+      <c r="D45">
+        <v>-74.063980000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A46" t="s">
+        <v>59</v>
+      </c>
+      <c r="B46" t="s">
+        <v>144</v>
+      </c>
+      <c r="C46">
+        <v>4.8449498000000002</v>
+      </c>
+      <c r="D46">
+        <v>-74.060868299999996</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A47" t="s">
+        <v>60</v>
+      </c>
+      <c r="B47" t="s">
+        <v>145</v>
+      </c>
+      <c r="C47">
+        <v>4.8700206000000001</v>
+      </c>
+      <c r="D47">
+        <v>-74.053038599999994</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A48" t="s">
+        <v>61</v>
+      </c>
+      <c r="B48" t="s">
+        <v>146</v>
+      </c>
+      <c r="C48">
+        <v>4.8676009999999996</v>
+      </c>
+      <c r="D48">
+        <v>-74.049784099999997</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A49" t="s">
+        <v>62</v>
+      </c>
+      <c r="B49" t="s">
+        <v>147</v>
+      </c>
+      <c r="C49">
+        <v>4.8582295999999996</v>
+      </c>
+      <c r="D49">
+        <v>-74.051661899999999</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A50" t="s">
+        <v>63</v>
+      </c>
+      <c r="B50" t="s">
+        <v>148</v>
+      </c>
+      <c r="C50">
+        <v>4.8747157000000003</v>
+      </c>
+      <c r="D50">
+        <v>-74.068580100000005</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A51" t="s">
+        <v>64</v>
+      </c>
+      <c r="B51" t="s">
+        <v>149</v>
+      </c>
+      <c r="C51">
+        <v>4.8815552999999996</v>
+      </c>
+      <c r="D51">
+        <v>-74.046840599999996</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A52" t="s">
+        <v>65</v>
+      </c>
+      <c r="B52" t="s">
+        <v>150</v>
+      </c>
+      <c r="C52">
+        <v>4.8483491000000001</v>
+      </c>
+      <c r="D52">
+        <v>-74.057139000000006</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A53" t="s">
+        <v>66</v>
+      </c>
+      <c r="B53" t="s">
+        <v>151</v>
+      </c>
+      <c r="C53">
+        <v>4.8504719999999999</v>
+      </c>
+      <c r="D53">
+        <v>-74.062117499999999</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A54" t="s">
+        <v>67</v>
+      </c>
+      <c r="B54" t="s">
+        <v>152</v>
+      </c>
+      <c r="C54">
+        <v>4.8633293000000002</v>
+      </c>
+      <c r="D54">
+        <v>-74.054246800000001</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A55" t="s">
+        <v>68</v>
+      </c>
+      <c r="B55" t="s">
+        <v>153</v>
+      </c>
+      <c r="C55">
+        <v>4.8483722</v>
+      </c>
+      <c r="D55">
+        <v>-74.061394699999994</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A56" t="s">
+        <v>69</v>
+      </c>
+      <c r="B56" t="s">
+        <v>154</v>
+      </c>
+      <c r="C56">
+        <v>4.8413900999999999</v>
+      </c>
+      <c r="D56">
+        <v>-74.055187099999998</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A57" t="s">
+        <v>70</v>
+      </c>
+      <c r="B57" t="s">
+        <v>155</v>
+      </c>
+      <c r="C57">
+        <v>4.8502803999999999</v>
+      </c>
+      <c r="D57">
+        <v>-74.053807599999999</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A58" t="s">
+        <v>71</v>
+      </c>
+      <c r="B58" t="s">
+        <v>156</v>
+      </c>
+      <c r="C58">
+        <v>4.8538302</v>
+      </c>
+      <c r="D58">
+        <v>-74.047261300000002</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
+        <v>72</v>
+      </c>
+      <c r="B59" t="s">
+        <v>157</v>
+      </c>
+      <c r="C59">
+        <v>4.8678948000000002</v>
+      </c>
+      <c r="D59">
+        <v>-74.047031500000003</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A60" t="s">
+        <v>73</v>
+      </c>
+      <c r="B60" t="s">
+        <v>158</v>
+      </c>
+      <c r="C60">
+        <v>4.8586561000000001</v>
+      </c>
+      <c r="D60">
+        <v>-74.049464799999996</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A61" t="s">
+        <v>74</v>
+      </c>
+      <c r="B61" t="s">
+        <v>159</v>
+      </c>
+      <c r="C61">
+        <v>4.8711507999999997</v>
+      </c>
+      <c r="D61">
+        <v>-74.043713199999999</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A62" t="s">
+        <v>75</v>
+      </c>
+      <c r="B62" t="s">
+        <v>160</v>
+      </c>
+      <c r="C62">
+        <v>4.8652873000000003</v>
+      </c>
+      <c r="D62">
+        <v>-74.052734000000001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A63" t="s">
+        <v>76</v>
+      </c>
+      <c r="B63" t="s">
+        <v>161</v>
+      </c>
+      <c r="C63">
+        <v>4.8611747999999997</v>
+      </c>
+      <c r="D63">
+        <v>-74.050039900000002</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A64" t="s">
+        <v>77</v>
+      </c>
+      <c r="B64" t="s">
+        <v>162</v>
+      </c>
+      <c r="C64">
+        <v>4.8740066999999998</v>
+      </c>
+      <c r="D64">
+        <v>-74.037252499999994</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A65" t="s">
+        <v>78</v>
+      </c>
+      <c r="B65" t="s">
+        <v>163</v>
+      </c>
+      <c r="C65">
+        <v>4.8568275999999999</v>
+      </c>
+      <c r="D65">
+        <v>-74.061078899999998</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
+        <v>79</v>
+      </c>
+      <c r="B66" t="s">
+        <v>164</v>
+      </c>
+      <c r="C66">
+        <v>4.8538709000000004</v>
+      </c>
+      <c r="D66">
+        <v>-74.052107599999999</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
+        <v>80</v>
+      </c>
+      <c r="B67" t="s">
+        <v>165</v>
+      </c>
+      <c r="C67">
+        <v>4.8809524</v>
+      </c>
+      <c r="D67">
+        <v>-74.042969200000002</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A68" t="s">
+        <v>81</v>
+      </c>
+      <c r="B68" t="s">
+        <v>166</v>
+      </c>
+      <c r="C68">
+        <v>4.8792179999999998</v>
+      </c>
+      <c r="D68">
+        <v>-74.048528500000003</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A69" t="s">
+        <v>82</v>
+      </c>
+      <c r="B69" t="s">
+        <v>167</v>
+      </c>
+      <c r="C69">
+        <v>4.8563698000000004</v>
+      </c>
+      <c r="D69">
+        <v>-74.051645100000002</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A70" t="s">
+        <v>83</v>
+      </c>
+      <c r="B70" t="s">
+        <v>168</v>
+      </c>
+      <c r="C70">
+        <v>4.8483885000000004</v>
+      </c>
+      <c r="D70">
+        <v>-74.052593400000006</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A71" t="s">
+        <v>84</v>
+      </c>
+      <c r="B71" t="s">
+        <v>169</v>
+      </c>
+      <c r="C71">
+        <v>4.8541575999999997</v>
+      </c>
+      <c r="D71">
+        <v>-74.050593500000005</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A72" t="s">
+        <v>85</v>
+      </c>
+      <c r="B72" t="s">
+        <v>170</v>
+      </c>
+      <c r="C72">
+        <v>4.8664132999999996</v>
+      </c>
+      <c r="D72">
+        <v>-74.063079500000001</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
+        <v>86</v>
+      </c>
+      <c r="B73" t="s">
+        <v>171</v>
+      </c>
+      <c r="C73">
+        <v>4.8646748999999998</v>
+      </c>
+      <c r="D73">
+        <v>-74.064805500000006</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
+        <v>87</v>
+      </c>
+      <c r="B74" t="s">
+        <v>172</v>
+      </c>
+      <c r="C74">
+        <v>4.872058</v>
+      </c>
+      <c r="D74">
+        <v>-74.052447000000001</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A75" t="s">
+        <v>88</v>
+      </c>
+      <c r="B75" t="s">
+        <v>173</v>
+      </c>
+      <c r="C75">
+        <v>4.8558165000000004</v>
+      </c>
+      <c r="D75">
+        <v>-74.072874799999994</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A76" t="s">
+        <v>89</v>
+      </c>
+      <c r="B76" t="s">
+        <v>174</v>
+      </c>
+      <c r="C76">
+        <v>4.8531003000000004</v>
+      </c>
+      <c r="D76">
+        <v>-74.054846100000006</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A77" t="s">
+        <v>90</v>
+      </c>
+      <c r="B77" t="s">
+        <v>175</v>
+      </c>
+      <c r="C77">
+        <v>4.8651213000000002</v>
+      </c>
+      <c r="D77">
+        <v>-74.049886999999998</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A78" t="s">
+        <v>91</v>
+      </c>
+      <c r="B78" t="s">
+        <v>176</v>
+      </c>
+      <c r="C78">
+        <v>4.8729335000000003</v>
+      </c>
+      <c r="D78">
+        <v>-74.046233700000002</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A79" t="s">
+        <v>92</v>
+      </c>
+      <c r="B79" t="s">
+        <v>177</v>
+      </c>
+      <c r="C79">
+        <v>4.8775409999999999</v>
+      </c>
+      <c r="D79">
+        <v>-74.065431799999999</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A80" t="s">
+        <v>93</v>
+      </c>
+      <c r="B80" t="s">
+        <v>178</v>
+      </c>
+      <c r="C80">
+        <v>4.8550931999999998</v>
+      </c>
+      <c r="D80">
+        <v>-74.054272299999994</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A81" t="s">
+        <v>94</v>
+      </c>
+      <c r="B81" t="s">
+        <v>179</v>
+      </c>
+      <c r="C81">
+        <v>4.8804033000000002</v>
+      </c>
+      <c r="D81">
+        <v>-74.042415500000004</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A82" t="s">
+        <v>95</v>
+      </c>
+      <c r="B82" t="s">
+        <v>180</v>
+      </c>
+      <c r="C82">
+        <v>4.8580005000000002</v>
+      </c>
+      <c r="D82">
+        <v>-74.0498805</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A83" t="s">
+        <v>96</v>
+      </c>
+      <c r="B83" t="s">
+        <v>181</v>
+      </c>
+      <c r="C83">
+        <v>4.8384672999999996</v>
+      </c>
+      <c r="D83">
+        <v>-74.076145499999996</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="A5" r:id="rId1" tooltip="Click to see website page" display="Click to see website page" xr:uid="{07B5467E-D2F4-462C-8CA5-1D5A6A56204E}"/>
+    <hyperlink ref="A22" r:id="rId2" tooltip="Click to see website page" display="Click to see website page" xr:uid="{6298FFC4-1E3D-4E8B-8196-557E289A7E91}"/>
+    <hyperlink ref="A64" r:id="rId3" tooltip="Click to see website page" display="Click to see website page" xr:uid="{E93BEE9B-85F6-46D7-AF61-65229785F979}"/>
+    <hyperlink ref="A70" r:id="rId4" tooltip="Click to see website page" display="Click to see website page" xr:uid="{FF6BC141-BB2B-4719-99A1-7348C6045101}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>